--- a/results/mod2.galtan.eff.MN.xlsx
+++ b/results/mod2.galtan.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0996483887942033</v>
+        <v>0.0996513865980907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0323981145644114</v>
+        <v>0.0323983138589575</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0361492510809545</v>
+        <v>0.0361518582747091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.163147526507452</v>
+        <v>0.163150914921472</v>
       </c>
       <c r="G2" t="n">
-        <v>3.07574654062323</v>
+        <v>3.0758201501446</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00209976255098709</v>
+        <v>0.00209924427042657</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.134103402344971</v>
+        <v>-0.13411192152888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0747127597177243</v>
+        <v>0.0747136717579837</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.280537720577305</v>
+        <v>-0.280548027327275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0123309158873637</v>
+        <v>0.0123241842695153</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.79491967438538</v>
+        <v>-1.79501178798041</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0726664988052688</v>
+        <v>0.0726518218263819</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0245752978517477</v>
+        <v>-0.0245724423490571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0322210053845978</v>
+        <v>0.0322212406117233</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0877273079512306</v>
+        <v>-0.0877249134852342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0385767122477352</v>
+        <v>0.0385800287871199</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.762710460409628</v>
+        <v>-0.762616270588809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.445636090791881</v>
+        <v>0.445692278221475</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0590303114025152</v>
+        <v>0.0590329772798464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.027648763995999</v>
+        <v>0.0276490170451889</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00483972975330947</v>
+        <v>0.00484189966334218</v>
       </c>
       <c r="F5" t="n">
-        <v>0.113220893051721</v>
+        <v>0.113224054896351</v>
       </c>
       <c r="G5" t="n">
-        <v>2.13500724340001</v>
+        <v>2.13508412191885</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0327604184602524</v>
+        <v>0.0327541393699522</v>
       </c>
     </row>
   </sheetData>
